--- a/Documents/1_ocean_acidification/1_Alkalinity/Data/Titatrion_summary/Alkalinity_summary.xlsx
+++ b/Documents/1_ocean_acidification/1_Alkalinity/Data/Titatrion_summary/Alkalinity_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarlot/Desktop/nuriateixidolab.github.io/Documents/1_ocean_acidification/1_Alkalinity/Data/Titatrion_summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487A982C-E63E-BD4A-8A95-A9A3B56603E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EC993D-98CA-D943-A00D-037469840BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>Operator</t>
   </si>
@@ -106,16 +106,34 @@
     <t>Batch 205</t>
   </si>
   <si>
-    <t>T0_A</t>
+    <t>CRM3</t>
   </si>
   <si>
-    <t>T0_B</t>
+    <t>ELOW_1</t>
   </si>
   <si>
-    <t>T0_C</t>
+    <t>Fahima</t>
   </si>
   <si>
-    <t>CRM3</t>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>ELOW_2</t>
+  </si>
+  <si>
+    <t>ELOW_3</t>
+  </si>
+  <si>
+    <t>Einar</t>
+  </si>
+  <si>
+    <t>LOW_1</t>
+  </si>
+  <si>
+    <t>LOW_2</t>
+  </si>
+  <si>
+    <t>LOW_3</t>
   </si>
 </sst>
 </file>
@@ -591,9 +609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O786"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="73" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -671,7 +689,10 @@
         <v>18</v>
       </c>
       <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="H2" s="26">
+        <f>+STDEV(E2:E3)</f>
+        <v>3.5355339059327378</v>
+      </c>
       <c r="I2" s="26"/>
       <c r="J2" s="27"/>
       <c r="K2" s="28"/>
@@ -797,7 +818,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="3"/>
       <c r="F7" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -806,25 +827,31 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="3">
+        <v>60.7</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2561.19</v>
+      </c>
       <c r="F8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="4" t="e">
-        <f>AVERAGE(E8:E10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="15" t="e">
-        <f>STDEV(E8:E10)</f>
-        <v>#DIV/0!</v>
+        <v>23</v>
+      </c>
+      <c r="G8" s="4">
+        <f>AVERAGE(E9:E10)</f>
+        <v>2578.7200000000003</v>
+      </c>
+      <c r="H8" s="15">
+        <f>STDEV(E9:E10)</f>
+        <v>1.4849242404916856</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -835,17 +862,23 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3">
+        <v>62.28</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2577.67</v>
+      </c>
       <c r="F9" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -855,17 +888,23 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="15">
+        <v>62.3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2579.77</v>
+      </c>
       <c r="F10" s="13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -876,22 +915,43 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="4" t="e">
+        <f>AVERAGE(E12:E13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="15" t="e">
+        <f>STDEV(E12:E13)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="4" t="e">
+        <f>G11+$J$5</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -901,9 +961,15 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="F13" s="13"/>
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>

--- a/Documents/1_ocean_acidification/1_Alkalinity/Data/Titatrion_summary/Alkalinity_summary.xlsx
+++ b/Documents/1_ocean_acidification/1_Alkalinity/Data/Titatrion_summary/Alkalinity_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarlot/Desktop/nuriateixidolab.github.io/Documents/1_ocean_acidification/1_Alkalinity/Data/Titatrion_summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EC993D-98CA-D943-A00D-037469840BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A302C6-9A42-2548-8F1D-34947112E245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Operator</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>LOW_3</t>
+  </si>
+  <si>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>Carolina</t>
   </si>
 </sst>
 </file>
@@ -251,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -325,6 +331,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -611,7 +620,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="73" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -839,7 +848,7 @@
       <c r="D8" s="3">
         <v>60.7</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="30">
         <v>2561.19</v>
       </c>
       <c r="F8" s="13" t="s">
@@ -914,12 +923,20 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <v>63.65</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2584.89</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>29</v>
@@ -940,14 +957,18 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>64.3</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="13" t="s">
         <v>30</v>

--- a/Documents/1_ocean_acidification/1_Alkalinity/Data/Titatrion_summary/Alkalinity_summary.xlsx
+++ b/Documents/1_ocean_acidification/1_Alkalinity/Data/Titatrion_summary/Alkalinity_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarlot/Desktop/nuriateixidolab.github.io/Documents/1_ocean_acidification/1_Alkalinity/Data/Titatrion_summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A302C6-9A42-2548-8F1D-34947112E245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71738EAD-75D7-AB48-BDDE-FE1EBE8DA6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>Operator</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>ALK batch</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/Dickson_CRM/batches.html</t>
   </si>
   <si>
     <t>16/09/2025</t>
@@ -141,12 +138,42 @@
   <si>
     <t>Carolina</t>
   </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Sinead</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Hollie</t>
+  </si>
+  <si>
+    <t>Pol</t>
+  </si>
+  <si>
+    <t>AMB_1</t>
+  </si>
+  <si>
+    <t>AMB_2</t>
+  </si>
+  <si>
+    <t>AMB_3</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +256,14 @@
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -253,11 +288,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -335,9 +371,14 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -620,7 +661,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="73" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -636,7 +677,7 @@
     <col min="9" max="9" width="15" style="12" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
@@ -683,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>12</v>
@@ -695,26 +736,27 @@
         <v>2707</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26">
-        <f>+STDEV(E2:E3)</f>
-        <v>3.5355339059327378</v>
+        <v>17</v>
+      </c>
+      <c r="G2" s="32">
+        <f>AVERAGE(E2:E4)</f>
+        <v>2705.6666666666665</v>
+      </c>
+      <c r="H2" s="32">
+        <f>+STDEV(E2:E4)</f>
+        <v>3.214550253664318</v>
       </c>
       <c r="I2" s="26"/>
       <c r="J2" s="27"/>
       <c r="K2" s="28"/>
-      <c r="L2" s="28" t="s">
-        <v>16</v>
-      </c>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>12</v>
@@ -726,7 +768,7 @@
         <v>2702</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -740,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>12</v>
@@ -752,7 +794,7 @@
         <v>2708</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -762,51 +804,63 @@
       <c r="L4" s="29"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="3">
+        <v>62.23</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2211.08</v>
+      </c>
       <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="e">
-        <f>AVERAGE(E5:E6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="4" t="e">
-        <f>STDEV(E5:E6)</f>
-        <v>#DIV/0!</v>
+      <c r="G5" s="3">
+        <f>AVERAGE(E5,E7)</f>
+        <v>2212.0699999999997</v>
+      </c>
+      <c r="H5" s="4">
+        <f>STDEV(E5,E7)</f>
+        <v>1.400071426749377</v>
       </c>
       <c r="I5" s="3">
         <v>2202.0500000000002</v>
       </c>
-      <c r="J5" s="3" t="e">
+      <c r="J5" s="3">
         <f>I5-G5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="4" t="e">
+        <v>-10.019999999999527</v>
+      </c>
+      <c r="K5" s="4">
         <f>G5+J5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>21</v>
+        <v>2202.0500000000002</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3">
+        <v>64.3</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2196.4</v>
+      </c>
       <c r="F6" s="13" t="s">
         <v>9</v>
       </c>
@@ -817,17 +871,23 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="12">
+        <v>66.78</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2213.06</v>
+      </c>
       <c r="F7" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -837,10 +897,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>12</v>
@@ -852,7 +912,7 @@
         <v>2561.19</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4">
         <f>AVERAGE(E9:E10)</f>
@@ -864,18 +924,18 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4" t="e">
+      <c r="K8" s="4">
         <f>G8+$J$5</f>
-        <v>#DIV/0!</v>
+        <v>2568.7000000000007</v>
       </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>12</v>
@@ -887,7 +947,7 @@
         <v>2577.67</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -898,10 +958,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>12</v>
@@ -913,7 +973,7 @@
         <v>2579.77</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -924,10 +984,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>12</v>
@@ -939,29 +999,29 @@
         <v>2584.89</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="4" t="e">
-        <f>AVERAGE(E12:E13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="15" t="e">
-        <f>STDEV(E12:E13)</f>
-        <v>#DIV/0!</v>
+        <v>28</v>
+      </c>
+      <c r="G11" s="4">
+        <f>AVERAGE(E11:E12)</f>
+        <v>2585.1799999999998</v>
+      </c>
+      <c r="H11" s="15">
+        <f>STDEV(E11:E12)</f>
+        <v>0.4101219330881461</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4" t="e">
+      <c r="K11" s="4">
         <f>G11+$J$5</f>
-        <v>#DIV/0!</v>
+        <v>2575.1600000000003</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>12</v>
@@ -969,9 +1029,11 @@
       <c r="D12" s="3">
         <v>64.3</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>2585.4699999999998</v>
+      </c>
       <c r="F12" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -981,15 +1043,23 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="D13" s="4">
+        <v>65.39</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2577.9499999999998</v>
+      </c>
       <c r="F13" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -999,22 +1069,56 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>61.07</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2568.56</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="4">
+        <f>AVERAGE(E14:E15)</f>
+        <v>2568.56</v>
+      </c>
+      <c r="H14" s="15" t="e">
+        <f>STDEV(E14:E15)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4">
+        <f>G14+$J$5</f>
+        <v>2558.5400000000004</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4">
+        <v>62.39</v>
+      </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="15"/>
       <c r="I15" s="4"/>
@@ -1022,10 +1126,21 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="F16" s="13"/>
+      <c r="A16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4">
+        <v>62.32</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -6024,7 +6139,10 @@
   </sheetData>
   <autoFilter ref="A1:L786" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L5" r:id="rId1" xr:uid="{A80135B6-A1BD-9343-B6EC-EC03367349C7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documents/1_ocean_acidification/1_Alkalinity/Data/Titatrion_summary/Alkalinity_summary.xlsx
+++ b/Documents/1_ocean_acidification/1_Alkalinity/Data/Titatrion_summary/Alkalinity_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarlot/Desktop/nuriateixidolab.github.io/Documents/1_ocean_acidification/1_Alkalinity/Data/Titatrion_summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71738EAD-75D7-AB48-BDDE-FE1EBE8DA6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F11DE1-629E-F048-9533-8EC79186730B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,9 +659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O786"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="73" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -671,11 +671,11 @@
     <col min="3" max="3" width="13.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="12" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.1640625" style="1"/>
@@ -1088,18 +1088,18 @@
         <v>38</v>
       </c>
       <c r="G14" s="4">
-        <f>AVERAGE(E14:E15)</f>
-        <v>2568.56</v>
-      </c>
-      <c r="H14" s="15" t="e">
-        <f>STDEV(E14:E15)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(E14:E16)</f>
+        <v>2564.3200000000002</v>
+      </c>
+      <c r="H14" s="15">
+        <f>STDEV(E14:E16)</f>
+        <v>3.882112826799287</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4">
         <f>G14+$J$5</f>
-        <v>2558.5400000000004</v>
+        <v>2554.3000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1115,7 +1115,9 @@
       <c r="D15" s="4">
         <v>62.39</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="15">
+        <v>2563.46</v>
+      </c>
       <c r="F15" s="13" t="s">
         <v>39</v>
       </c>
@@ -1137,6 +1139,9 @@
       </c>
       <c r="D16" s="4">
         <v>62.32</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2560.94</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>40</v>
